--- a/test_plan/Test Plan.xlsx
+++ b/test_plan/Test Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgramingProjects\CypressProjects\AcademiaQA_Cypress_YourStoreSite\test_plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgramingProjects\IntelliJProjects\YourStore-Selenium-POM-TestLab\test_plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D31AE18-AE80-4173-99CA-923803B433EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BAC594-41F1-4731-A495-0F1DA45BBCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{E828D7EE-574E-4891-A092-A3D3FC4A54AE}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15150" activeTab="1" xr2:uid="{E828D7EE-574E-4891-A092-A3D3FC4A54AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Registro Usuarios" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="99">
   <si>
     <t>Id</t>
   </si>
@@ -321,6 +321,15 @@
   </si>
   <si>
     <t>Validar la visualización correcta del mensaje de comparar producto</t>
+  </si>
+  <si>
+    <t>Llenar los datos del formulario con valores incorrectos varias vece</t>
+  </si>
+  <si>
+    <t>Validar el mensaje de error cuando no se ingresan datos en el formulario hasta el maximo de intentos</t>
+  </si>
+  <si>
+    <t>Validar el mensaje de error cuando no se ingresa la cantidad maxima de intentos</t>
   </si>
 </sst>
 </file>
@@ -1145,18 +1154,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="C12:C16"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="C17:C20"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1165,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA127C4-19A3-4F30-8CCC-FA866DFE6D7C}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,13 +1471,73 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="C14:C18"/>
@@ -1484,6 +1553,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1491,7 +1561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B412EA-237C-4DBE-9705-95B71194D3DE}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:B9"/>
     </sheetView>
   </sheetViews>
@@ -1907,21 +1977,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A21:A26"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B9"/>
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="B21:B26"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="C21:C26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
